--- a/src/main/resources/resource/EquipAttrResource.xlsx
+++ b/src/main/resources/resource/EquipAttrResource.xlsx
@@ -25,7 +25,7 @@
     <t>i1003</t>
   </si>
   <si>
-    <t>[{"type": "attack","value": 100},{"type": "defense","value": 50}]</t>
+    <t>[{"type": "ATTACK","value": 100},{"type": "DEFENSE","value": 50}]</t>
   </si>
   <si>
     <t>i1004</t>
@@ -36,10 +36,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -52,14 +52,127 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -75,119 +188,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -203,13 +203,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -221,19 +359,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -245,19 +371,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -269,121 +383,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -394,6 +394,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -408,6 +441,36 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -427,70 +490,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -500,10 +500,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -512,133 +512,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -966,7 +966,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="2" outlineLevelCol="1"/>

--- a/src/main/resources/resource/EquipAttrResource.xlsx
+++ b/src/main/resources/resource/EquipAttrResource.xlsx
@@ -36,10 +36,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -58,6 +58,97 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -65,99 +156,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,19 +172,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -203,187 +203,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,17 +400,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -426,6 +432,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -460,17 +475,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -485,25 +494,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -512,133 +512,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -966,7 +966,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="2" outlineLevelCol="1"/>

--- a/src/main/resources/resource/EquipAttrResource.xlsx
+++ b/src/main/resources/resource/EquipAttrResource.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>itemId</t>
   </si>
@@ -30,6 +30,12 @@
   <si>
     <t>i1004</t>
   </si>
+  <si>
+    <t>i1009</t>
+  </si>
+  <si>
+    <t>i1010</t>
+  </si>
 </sst>
 </file>
 
@@ -50,47 +56,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -104,6 +86,96 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -112,83 +184,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,49 +209,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -257,133 +389,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,26 +403,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -438,39 +459,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -484,13 +477,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -500,10 +506,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -512,133 +518,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -963,13 +969,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="12.3333333333333" customWidth="1"/>
     <col min="2" max="2" width="97.4444444444444" customWidth="1"/>
@@ -999,6 +1005,22 @@
         <v>3</v>
       </c>
     </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/src/main/resources/resource/EquipAttrResource.xlsx
+++ b/src/main/resources/resource/EquipAttrResource.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
   <si>
     <t>itemId</t>
   </si>
@@ -22,19 +22,7 @@
     <t>basicAttributeString</t>
   </si>
   <si>
-    <t>i1003</t>
-  </si>
-  <si>
     <t>[{"type": "ATTACK","value": 100},{"type": "DEFENSE","value": 50}]</t>
-  </si>
-  <si>
-    <t>i1004</t>
-  </si>
-  <si>
-    <t>i1009</t>
-  </si>
-  <si>
-    <t>i1010</t>
   </si>
 </sst>
 </file>
@@ -42,9 +30,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -57,7 +45,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -65,6 +60,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -73,6 +84,28 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -86,69 +119,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,13 +151,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -176,25 +159,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,19 +197,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -233,163 +311,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,21 +388,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -429,15 +402,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -459,20 +423,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -500,16 +468,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -518,133 +506,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -972,7 +960,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="4" outlineLevelCol="1"/>
@@ -990,35 +978,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
+      <c r="A2">
+        <v>1003</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>4</v>
+      <c r="A3">
+        <v>1004</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>5</v>
+      <c r="A4">
+        <v>1009</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>6</v>
+      <c r="A5">
+        <v>1010</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/resource/EquipAttrResource.xlsx
+++ b/src/main/resources/resource/EquipAttrResource.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347"/>
+    <workbookView windowWidth="17351" windowHeight="7787"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,10 +30,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -45,14 +45,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -60,9 +53,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -74,38 +75,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -121,25 +151,17 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -151,38 +173,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,19 +197,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -221,163 +377,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,17 +391,37 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -424,23 +444,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -459,45 +488,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -506,133 +506,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -960,7 +960,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="4" outlineLevelCol="1"/>
